--- a/doc/Schema_Mapping_Chart (Ver 0.1).xlsx
+++ b/doc/Schema_Mapping_Chart (Ver 0.1).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Type</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
@@ -307,15 +310,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,6 +345,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,768 +693,791 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X26"/>
+  <dimension ref="A2:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="7.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="6" customWidth="1"/>
-    <col min="6" max="12" width="9.140625" style="6"/>
-    <col min="13" max="14" width="11.28515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="6"/>
-    <col min="16" max="16" width="12.5703125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="6" customWidth="1"/>
-    <col min="19" max="23" width="9.140625" style="6"/>
-    <col min="24" max="24" width="10.5703125" style="6" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="7.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
+    <col min="6" max="12" width="9.140625" style="3"/>
+    <col min="13" max="14" width="11.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="12.5703125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="3" customWidth="1"/>
+    <col min="19" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="10.5703125" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="7" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:24" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="W6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="X6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="Y6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:25" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="13">
         <v>20</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="13">
         <v>0</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="13"/>
+      <c r="U7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="V7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:25" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <v>300</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-    </row>
-    <row r="9" spans="1:24" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <v>300</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="13">
         <v>0</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16" t="s">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="1:24" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="13">
         <v>7</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="13">
         <v>0</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-    </row>
-    <row r="11" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-    </row>
-    <row r="12" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-    </row>
-    <row r="13" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+    </row>
+    <row r="13" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-    </row>
-    <row r="14" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-    </row>
-    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+    </row>
+    <row r="15" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-    </row>
-    <row r="16" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
         <v>10</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-    </row>
-    <row r="17" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+    </row>
+    <row r="17" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11">
         <v>11</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-    </row>
-    <row r="18" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+    </row>
+    <row r="18" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11">
         <v>12</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-    </row>
-    <row r="19" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="14">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+    </row>
+    <row r="19" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
         <v>13</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-    </row>
-    <row r="20" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="14">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+    </row>
+    <row r="20" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
         <v>14</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-    </row>
-    <row r="21" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+    </row>
+    <row r="21" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
         <v>15</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-    </row>
-    <row r="22" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+    </row>
+    <row r="22" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11">
         <v>16</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-    </row>
-    <row r="23" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+    </row>
+    <row r="23" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11">
         <v>17</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-    </row>
-    <row r="24" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+    </row>
+    <row r="24" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11">
         <v>18</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-    </row>
-    <row r="25" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="14">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+    </row>
+    <row r="25" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11">
         <v>19</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-    </row>
-    <row r="26" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="14">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+    </row>
+    <row r="26" spans="2:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11">
         <v>20</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1462,6 +1488,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010069460F8FB5A0104595B12D36B4B61AE5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314c3e48e96301a80821264729b0b1f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1527,37 +1571,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AF3D227-3420-48C0-AA3C-3EFC40ACF53C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0946-04EB-4DB0-B72E-7805BDF64099}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1578,9 +1595,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0946-04EB-4DB0-B72E-7805BDF64099}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AF3D227-3420-48C0-AA3C-3EFC40ACF53C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>